--- a/natmiOut/OldD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.519376395336</v>
+        <v>123.7408105</v>
       </c>
       <c r="H2">
-        <v>123.519376395336</v>
+        <v>247.481621</v>
       </c>
       <c r="I2">
-        <v>0.02632603366711183</v>
+        <v>0.02525332733072527</v>
       </c>
       <c r="J2">
-        <v>0.02632603366711183</v>
+        <v>0.01706726377585207</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>225.9534898368316</v>
+        <v>249.838388476783</v>
       </c>
       <c r="R2">
-        <v>225.9534898368316</v>
+        <v>999.3535539071319</v>
       </c>
       <c r="S2">
-        <v>9.784035101136635E-05</v>
+        <v>0.0001003908988369287</v>
       </c>
       <c r="T2">
-        <v>9.784035101136635E-05</v>
+        <v>4.62020650396086E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.519376395336</v>
+        <v>123.7408105</v>
       </c>
       <c r="H3">
-        <v>123.519376395336</v>
+        <v>247.481621</v>
       </c>
       <c r="I3">
-        <v>0.02632603366711183</v>
+        <v>0.02525332733072527</v>
       </c>
       <c r="J3">
-        <v>0.02632603366711183</v>
+        <v>0.01706726377585207</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>16244.22721611285</v>
+        <v>17285.94983698224</v>
       </c>
       <c r="R3">
-        <v>16244.22721611285</v>
+        <v>103715.6990218934</v>
       </c>
       <c r="S3">
-        <v>0.007033929389099441</v>
+        <v>0.006945898314365609</v>
       </c>
       <c r="T3">
-        <v>0.007033929389099441</v>
+        <v>0.004794979167386131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.519376395336</v>
+        <v>123.7408105</v>
       </c>
       <c r="H4">
-        <v>123.519376395336</v>
+        <v>247.481621</v>
       </c>
       <c r="I4">
-        <v>0.02632603366711183</v>
+        <v>0.02525332733072527</v>
       </c>
       <c r="J4">
-        <v>0.02632603366711183</v>
+        <v>0.01706726377585207</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>22755.54967210039</v>
+        <v>23059.70063332223</v>
       </c>
       <c r="R4">
-        <v>22755.54967210039</v>
+        <v>138358.2037999334</v>
       </c>
       <c r="S4">
-        <v>0.009853403764565215</v>
+        <v>0.009265926215757827</v>
       </c>
       <c r="T4">
-        <v>0.009853403764565215</v>
+        <v>0.006396569768262396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.519376395336</v>
+        <v>123.7408105</v>
       </c>
       <c r="H5">
-        <v>123.519376395336</v>
+        <v>247.481621</v>
       </c>
       <c r="I5">
-        <v>0.02632603366711183</v>
+        <v>0.02525332733072527</v>
       </c>
       <c r="J5">
-        <v>0.02632603366711183</v>
+        <v>0.01706726377585207</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>17258.65709565982</v>
+        <v>17769.82375752072</v>
       </c>
       <c r="R5">
-        <v>17258.65709565982</v>
+        <v>106618.9425451244</v>
       </c>
       <c r="S5">
-        <v>0.007473188705532071</v>
+        <v>0.007140330155295938</v>
       </c>
       <c r="T5">
-        <v>0.007473188705532071</v>
+        <v>0.004929201781156516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.519376395336</v>
+        <v>123.7408105</v>
       </c>
       <c r="H6">
-        <v>123.519376395336</v>
+        <v>247.481621</v>
       </c>
       <c r="I6">
-        <v>0.02632603366711183</v>
+        <v>0.02525332733072527</v>
       </c>
       <c r="J6">
-        <v>0.02632603366711183</v>
+        <v>0.01706726377585207</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>612.5001773128213</v>
+        <v>773.8398039829445</v>
       </c>
       <c r="R6">
-        <v>612.5001773128213</v>
+        <v>4643.038823897667</v>
       </c>
       <c r="S6">
-        <v>0.0002652193262696937</v>
+        <v>0.0003109469043219503</v>
       </c>
       <c r="T6">
-        <v>0.0002652193262696937</v>
+        <v>0.0002146567457377378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.519376395336</v>
+        <v>123.7408105</v>
       </c>
       <c r="H7">
-        <v>123.519376395336</v>
+        <v>247.481621</v>
       </c>
       <c r="I7">
-        <v>0.02632603366711183</v>
+        <v>0.02525332733072527</v>
       </c>
       <c r="J7">
-        <v>0.02632603366711183</v>
+        <v>0.01706726377585207</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>3700.71905374876</v>
+        <v>3707.686058904507</v>
       </c>
       <c r="R7">
-        <v>3700.71905374876</v>
+        <v>14830.74423561803</v>
       </c>
       <c r="S7">
-        <v>0.001602452130634051</v>
+        <v>0.001489834842147017</v>
       </c>
       <c r="T7">
-        <v>0.001602452130634051</v>
+        <v>0.0006856542482696768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.1636313207481</v>
+        <v>69.72761133333334</v>
       </c>
       <c r="H8">
-        <v>66.1636313207481</v>
+        <v>209.182834</v>
       </c>
       <c r="I8">
-        <v>0.0141016416737201</v>
+        <v>0.01423018150499552</v>
       </c>
       <c r="J8">
-        <v>0.0141016416737201</v>
+        <v>0.01442603531863191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>121.0328600538905</v>
+        <v>140.7832547521213</v>
       </c>
       <c r="R8">
-        <v>121.0328600538905</v>
+        <v>844.699528512728</v>
       </c>
       <c r="S8">
-        <v>5.240856213432972E-05</v>
+        <v>5.656999939809952E-05</v>
       </c>
       <c r="T8">
-        <v>5.240856213432972E-05</v>
+        <v>3.905210763767242E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.1636313207481</v>
+        <v>69.72761133333334</v>
       </c>
       <c r="H9">
-        <v>66.1636313207481</v>
+        <v>209.182834</v>
       </c>
       <c r="I9">
-        <v>0.0141016416737201</v>
+        <v>0.01423018150499552</v>
       </c>
       <c r="J9">
-        <v>0.0141016416737201</v>
+        <v>0.01442603531863191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>8701.283085962337</v>
+        <v>9740.585881814588</v>
       </c>
       <c r="R9">
-        <v>8701.283085962337</v>
+        <v>87665.2729363313</v>
       </c>
       <c r="S9">
-        <v>0.003767751460685994</v>
+        <v>0.00391399487418858</v>
       </c>
       <c r="T9">
-        <v>0.003767751460685994</v>
+        <v>0.0040529366469795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>66.1636313207481</v>
+        <v>69.72761133333334</v>
       </c>
       <c r="H10">
-        <v>66.1636313207481</v>
+        <v>209.182834</v>
       </c>
       <c r="I10">
-        <v>0.0141016416737201</v>
+        <v>0.01423018150499552</v>
       </c>
       <c r="J10">
-        <v>0.0141016416737201</v>
+        <v>0.01442603531863191</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>12189.0981232534</v>
+        <v>12994.07880654955</v>
       </c>
       <c r="R10">
-        <v>12189.0981232534</v>
+        <v>116946.7092589459</v>
       </c>
       <c r="S10">
-        <v>0.005278013806081529</v>
+        <v>0.005221324308488395</v>
       </c>
       <c r="T10">
-        <v>0.005278013806081529</v>
+        <v>0.005406674591014787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.1636313207481</v>
+        <v>69.72761133333334</v>
       </c>
       <c r="H11">
-        <v>66.1636313207481</v>
+        <v>209.182834</v>
       </c>
       <c r="I11">
-        <v>0.0141016416737201</v>
+        <v>0.01423018150499552</v>
       </c>
       <c r="J11">
-        <v>0.0141016416737201</v>
+        <v>0.01442603531863191</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>9244.66637132056</v>
+        <v>10013.24752456053</v>
       </c>
       <c r="R11">
-        <v>9244.66637132056</v>
+        <v>90119.22772104474</v>
       </c>
       <c r="S11">
-        <v>0.004003042411100392</v>
+        <v>0.004023556689570535</v>
       </c>
       <c r="T11">
-        <v>0.004003042411100392</v>
+        <v>0.00416638776557944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>66.1636313207481</v>
+        <v>69.72761133333334</v>
       </c>
       <c r="H12">
-        <v>66.1636313207481</v>
+        <v>209.182834</v>
       </c>
       <c r="I12">
-        <v>0.0141016416737201</v>
+        <v>0.01423018150499552</v>
       </c>
       <c r="J12">
-        <v>0.0141016416737201</v>
+        <v>0.01442603531863191</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>328.0880870537535</v>
+        <v>436.0566321519739</v>
       </c>
       <c r="R12">
-        <v>328.0880870537535</v>
+        <v>3924.509689367765</v>
       </c>
       <c r="S12">
-        <v>0.0001420657570864146</v>
+        <v>0.0001752177378041672</v>
       </c>
       <c r="T12">
-        <v>0.0001420657570864146</v>
+        <v>0.000181437741635923</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>66.1636313207481</v>
+        <v>69.72761133333334</v>
       </c>
       <c r="H13">
-        <v>66.1636313207481</v>
+        <v>209.182834</v>
       </c>
       <c r="I13">
-        <v>0.0141016416737201</v>
+        <v>0.01423018150499552</v>
       </c>
       <c r="J13">
-        <v>0.0141016416737201</v>
+        <v>0.01442603531863191</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>1982.304462987446</v>
+        <v>2089.271044990544</v>
       </c>
       <c r="R13">
-        <v>1982.304462987446</v>
+        <v>12535.62626994327</v>
       </c>
       <c r="S13">
-        <v>0.0008583596766314472</v>
+        <v>0.0008395178955457483</v>
       </c>
       <c r="T13">
-        <v>0.0008583596766314472</v>
+        <v>0.0005795464657845869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2132.89719117083</v>
+        <v>2238.507934333333</v>
       </c>
       <c r="H14">
-        <v>2132.89719117083</v>
+        <v>6715.523802999999</v>
       </c>
       <c r="I14">
-        <v>0.45459040437134</v>
+        <v>0.4568401756035478</v>
       </c>
       <c r="J14">
-        <v>0.45459040437134</v>
+        <v>0.4631277897554025</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>3901.700104651939</v>
+        <v>4519.650490783979</v>
       </c>
       <c r="R14">
-        <v>3901.700104651939</v>
+        <v>27117.90294470387</v>
       </c>
       <c r="S14">
-        <v>0.001689479140401417</v>
+        <v>0.001816101112262553</v>
       </c>
       <c r="T14">
-        <v>0.001689479140401417</v>
+        <v>0.00125371357383038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2132.89719117083</v>
+        <v>2238.507934333333</v>
       </c>
       <c r="H15">
-        <v>2132.89719117083</v>
+        <v>6715.523802999999</v>
       </c>
       <c r="I15">
-        <v>0.45459040437134</v>
+        <v>0.4568401756035478</v>
       </c>
       <c r="J15">
-        <v>0.45459040437134</v>
+        <v>0.4631277897554025</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>280500.6600024909</v>
+        <v>312707.9554935736</v>
       </c>
       <c r="R15">
-        <v>280500.6600024909</v>
+        <v>2814371.599442163</v>
       </c>
       <c r="S15">
-        <v>0.1214598767798721</v>
+        <v>0.1256533590248299</v>
       </c>
       <c r="T15">
-        <v>0.1214598767798721</v>
+        <v>0.1301138912997127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2132.89719117083</v>
+        <v>2238.507934333333</v>
       </c>
       <c r="H16">
-        <v>2132.89719117083</v>
+        <v>6715.523802999999</v>
       </c>
       <c r="I16">
-        <v>0.45459040437134</v>
+        <v>0.4568401756035478</v>
       </c>
       <c r="J16">
-        <v>0.45459040437134</v>
+        <v>0.4631277897554025</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>392936.3100395629</v>
+        <v>417156.8185343606</v>
       </c>
       <c r="R16">
-        <v>392936.3100395629</v>
+        <v>3754411.366809245</v>
       </c>
       <c r="S16">
-        <v>0.1701457522392963</v>
+        <v>0.167623351335016</v>
       </c>
       <c r="T16">
-        <v>0.1701457522392963</v>
+        <v>0.1735737642364817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2132.89719117083</v>
+        <v>2238.507934333333</v>
       </c>
       <c r="H17">
-        <v>2132.89719117083</v>
+        <v>6715.523802999999</v>
       </c>
       <c r="I17">
-        <v>0.45459040437134</v>
+        <v>0.4568401756035478</v>
       </c>
       <c r="J17">
-        <v>0.45459040437134</v>
+        <v>0.4631277897554025</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>298017.5444287889</v>
+        <v>321461.3781191866</v>
       </c>
       <c r="R17">
-        <v>298017.5444287889</v>
+        <v>2893152.403072679</v>
       </c>
       <c r="S17">
-        <v>0.1290448807651266</v>
+        <v>0.1291706886499626</v>
       </c>
       <c r="T17">
-        <v>0.1290448807651266</v>
+        <v>0.1337560815926067</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2132.89719117083</v>
+        <v>2238.507934333333</v>
       </c>
       <c r="H18">
-        <v>2132.89719117083</v>
+        <v>6715.523802999999</v>
       </c>
       <c r="I18">
-        <v>0.45459040437134</v>
+        <v>0.4568401756035478</v>
       </c>
       <c r="J18">
-        <v>0.45459040437134</v>
+        <v>0.4631277897554025</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>10576.47752042473</v>
+        <v>13998.9913927287</v>
       </c>
       <c r="R18">
-        <v>10576.47752042473</v>
+        <v>125990.9225345583</v>
       </c>
       <c r="S18">
-        <v>0.00457973131465882</v>
+        <v>0.005625121652820219</v>
       </c>
       <c r="T18">
-        <v>0.00457973131465882</v>
+        <v>0.005824806220564948</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2132.89719117083</v>
+        <v>2238.507934333333</v>
       </c>
       <c r="H19">
-        <v>2132.89719117083</v>
+        <v>6715.523802999999</v>
       </c>
       <c r="I19">
-        <v>0.45459040437134</v>
+        <v>0.4568401756035478</v>
       </c>
       <c r="J19">
-        <v>0.45459040437134</v>
+        <v>0.4631277897554025</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>63902.95600092704</v>
+        <v>67073.13963225434</v>
       </c>
       <c r="R19">
-        <v>63902.95600092704</v>
+        <v>402438.8377935261</v>
       </c>
       <c r="S19">
-        <v>0.02767068413198478</v>
+        <v>0.0269515538286566</v>
       </c>
       <c r="T19">
-        <v>0.02767068413198478</v>
+        <v>0.0186055328322061</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2199.03777950108</v>
+        <v>2297.234985666667</v>
       </c>
       <c r="H20">
-        <v>2199.03777950108</v>
+        <v>6891.704957000001</v>
       </c>
       <c r="I20">
-        <v>0.4686871348273925</v>
+        <v>0.4688253359115853</v>
       </c>
       <c r="J20">
-        <v>0.4686871348273925</v>
+        <v>0.4752779050468004</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>4022.690812257596</v>
+        <v>4638.223108870341</v>
       </c>
       <c r="R20">
-        <v>4022.690812257596</v>
+        <v>27829.33865322205</v>
       </c>
       <c r="S20">
-        <v>0.00174186945006116</v>
+        <v>0.001863746359174814</v>
       </c>
       <c r="T20">
-        <v>0.00174186945006116</v>
+        <v>0.001286604635004824</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2199.03777950108</v>
+        <v>2297.234985666667</v>
       </c>
       <c r="H21">
-        <v>2199.03777950108</v>
+        <v>6891.704957000001</v>
       </c>
       <c r="I21">
-        <v>0.4686871348273925</v>
+        <v>0.4688253359115853</v>
       </c>
       <c r="J21">
-        <v>0.4686871348273925</v>
+        <v>0.4752779050468004</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>289198.9126685765</v>
+        <v>320911.8201629576</v>
       </c>
       <c r="R21">
-        <v>289198.9126685765</v>
+        <v>2888206.381466619</v>
       </c>
       <c r="S21">
-        <v>0.1252263160353575</v>
+        <v>0.1289498634296064</v>
       </c>
       <c r="T21">
-        <v>0.1252263160353575</v>
+        <v>0.1335274173615775</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2199.03777950108</v>
+        <v>2297.234985666667</v>
       </c>
       <c r="H22">
-        <v>2199.03777950108</v>
+        <v>6891.704957000001</v>
       </c>
       <c r="I22">
-        <v>0.4686871348273925</v>
+        <v>0.4688253359115853</v>
       </c>
       <c r="J22">
-        <v>0.4686871348273925</v>
+        <v>0.4752779050468004</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>405121.1630319699</v>
+        <v>428100.8895918588</v>
       </c>
       <c r="R22">
-        <v>405121.1630319699</v>
+        <v>3852908.006326729</v>
       </c>
       <c r="S22">
-        <v>0.1754219278569418</v>
+        <v>0.1720209346571625</v>
       </c>
       <c r="T22">
-        <v>0.1754219278569418</v>
+        <v>0.1781274560979633</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2199.03777950108</v>
+        <v>2297.234985666667</v>
       </c>
       <c r="H23">
-        <v>2199.03777950108</v>
+        <v>6891.704957000001</v>
       </c>
       <c r="I23">
-        <v>0.4686871348273925</v>
+        <v>0.4688253359115853</v>
       </c>
       <c r="J23">
-        <v>0.4686871348273925</v>
+        <v>0.4752779050468004</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>307258.9911346361</v>
+        <v>329894.8880321688</v>
       </c>
       <c r="R23">
-        <v>307258.9911346361</v>
+        <v>2969053.99228952</v>
       </c>
       <c r="S23">
-        <v>0.1330465290255977</v>
+        <v>0.1325594698764037</v>
       </c>
       <c r="T23">
-        <v>0.1330465290255977</v>
+        <v>0.1372651601843581</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2199.03777950108</v>
+        <v>2297.234985666667</v>
       </c>
       <c r="H24">
-        <v>2199.03777950108</v>
+        <v>6891.704957000001</v>
       </c>
       <c r="I24">
-        <v>0.4686871348273925</v>
+        <v>0.4688253359115853</v>
       </c>
       <c r="J24">
-        <v>0.4686871348273925</v>
+        <v>0.4752779050468004</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>10904.45134333485</v>
+        <v>14366.25365413342</v>
       </c>
       <c r="R24">
-        <v>10904.45134333485</v>
+        <v>129296.2828872008</v>
       </c>
       <c r="S24">
-        <v>0.004721747594111899</v>
+        <v>0.005772696205938703</v>
       </c>
       <c r="T24">
-        <v>0.004721747594111899</v>
+        <v>0.005977619480091641</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2199.03777950108</v>
+        <v>2297.234985666667</v>
       </c>
       <c r="H25">
-        <v>2199.03777950108</v>
+        <v>6891.704957000001</v>
       </c>
       <c r="I25">
-        <v>0.4686871348273925</v>
+        <v>0.4688253359115853</v>
       </c>
       <c r="J25">
-        <v>0.4686871348273925</v>
+        <v>0.4752779050468004</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>65884.5700812678</v>
+        <v>68832.79732828318</v>
       </c>
       <c r="R25">
-        <v>65884.5700812678</v>
+        <v>412996.7839696991</v>
       </c>
       <c r="S25">
-        <v>0.0285287448653225</v>
+        <v>0.0276586253832991</v>
       </c>
       <c r="T25">
-        <v>0.0285287448653225</v>
+        <v>0.01909364728780502</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>94.5076096568863</v>
+        <v>94.93745433333333</v>
       </c>
       <c r="H26">
-        <v>94.5076096568863</v>
+        <v>284.812363</v>
       </c>
       <c r="I26">
-        <v>0.02014267385598133</v>
+        <v>0.01937506793868502</v>
       </c>
       <c r="J26">
-        <v>0.02014267385598133</v>
+        <v>0.01964173220743826</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>172.8823836493788</v>
+        <v>191.6830874218993</v>
       </c>
       <c r="R26">
-        <v>172.8823836493788</v>
+        <v>1150.098524531396</v>
       </c>
       <c r="S26">
-        <v>7.485997721102564E-05</v>
+        <v>7.702274080234184E-05</v>
       </c>
       <c r="T26">
-        <v>7.485997721102564E-05</v>
+        <v>5.317129921098511E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>94.5076096568863</v>
+        <v>94.93745433333333</v>
       </c>
       <c r="H27">
-        <v>94.5076096568863</v>
+        <v>284.812363</v>
       </c>
       <c r="I27">
-        <v>0.02014267385598133</v>
+        <v>0.01937506793868502</v>
       </c>
       <c r="J27">
-        <v>0.02014267385598133</v>
+        <v>0.01964173220743826</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>12428.84420015684</v>
+        <v>13262.27027789504</v>
       </c>
       <c r="R27">
-        <v>12428.84420015684</v>
+        <v>119360.4325010553</v>
       </c>
       <c r="S27">
-        <v>0.005381826499281222</v>
+        <v>0.005329089904612044</v>
       </c>
       <c r="T27">
-        <v>0.005381826499281222</v>
+        <v>0.005518265726888126</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>94.5076096568863</v>
+        <v>94.93745433333333</v>
       </c>
       <c r="H28">
-        <v>94.5076096568863</v>
+        <v>284.812363</v>
       </c>
       <c r="I28">
-        <v>0.02014267385598133</v>
+        <v>0.01937506793868502</v>
       </c>
       <c r="J28">
-        <v>0.02014267385598133</v>
+        <v>0.01964173220743826</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>17410.81171795776</v>
+        <v>17692.05540977418</v>
       </c>
       <c r="R28">
-        <v>17410.81171795776</v>
+        <v>159228.4986879677</v>
       </c>
       <c r="S28">
-        <v>0.007539073333666746</v>
+        <v>0.007109081017087284</v>
       </c>
       <c r="T28">
-        <v>0.007539073333666746</v>
+        <v>0.007361444229400678</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>94.5076096568863</v>
+        <v>94.93745433333333</v>
       </c>
       <c r="H29">
-        <v>94.5076096568863</v>
+        <v>284.812363</v>
       </c>
       <c r="I29">
-        <v>0.02014267385598133</v>
+        <v>0.01937506793868502</v>
       </c>
       <c r="J29">
-        <v>0.02014267385598133</v>
+        <v>0.01964173220743826</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>13205.00860349435</v>
+        <v>13633.51205373756</v>
       </c>
       <c r="R29">
-        <v>13205.00860349435</v>
+        <v>122701.6084836381</v>
       </c>
       <c r="S29">
-        <v>0.005717914238930247</v>
+        <v>0.005478263519563184</v>
       </c>
       <c r="T29">
-        <v>0.005717914238930247</v>
+        <v>0.005672734812881302</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>94.5076096568863</v>
+        <v>94.93745433333333</v>
       </c>
       <c r="H30">
-        <v>94.5076096568863</v>
+        <v>284.812363</v>
       </c>
       <c r="I30">
-        <v>0.02014267385598133</v>
+        <v>0.01937506793868502</v>
       </c>
       <c r="J30">
-        <v>0.02014267385598133</v>
+        <v>0.01964173220743826</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>468.6384384502081</v>
+        <v>593.7118138719999</v>
       </c>
       <c r="R30">
-        <v>468.6384384502081</v>
+        <v>5343.406324847999</v>
       </c>
       <c r="S30">
-        <v>0.0002029256080465853</v>
+        <v>0.0002385672714593746</v>
       </c>
       <c r="T30">
-        <v>0.0002029256080465853</v>
+        <v>0.0002470361020766681</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>94.5076096568863</v>
+        <v>94.93745433333333</v>
       </c>
       <c r="H31">
-        <v>94.5076096568863</v>
+        <v>284.812363</v>
       </c>
       <c r="I31">
-        <v>0.02014267385598133</v>
+        <v>0.01937506793868502</v>
       </c>
       <c r="J31">
-        <v>0.02014267385598133</v>
+        <v>0.01964173220743826</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>2831.508075802556</v>
+        <v>2844.641751393598</v>
       </c>
       <c r="R31">
-        <v>2831.508075802556</v>
+        <v>17067.85050836159</v>
       </c>
       <c r="S31">
-        <v>0.001226074198845511</v>
+        <v>0.001143043485160793</v>
       </c>
       <c r="T31">
-        <v>0.001226074198845511</v>
+        <v>0.000789080036980505</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>75.78425136417199</v>
+        <v>75.831665</v>
       </c>
       <c r="H32">
-        <v>75.78425136417199</v>
+        <v>151.66333</v>
       </c>
       <c r="I32">
-        <v>0.01615211160445424</v>
+        <v>0.01547591171046114</v>
       </c>
       <c r="J32">
-        <v>0.01615211160445424</v>
+        <v>0.01045927389587487</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>138.6318209347186</v>
+        <v>153.10761989159</v>
       </c>
       <c r="R32">
-        <v>138.6318209347186</v>
+        <v>612.43047956636</v>
       </c>
       <c r="S32">
-        <v>6.002910612884362E-05</v>
+        <v>6.152221711567716E-05</v>
       </c>
       <c r="T32">
-        <v>6.002910612884362E-05</v>
+        <v>2.831385623089815E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>75.78425136417199</v>
+        <v>75.831665</v>
       </c>
       <c r="H33">
-        <v>75.78425136417199</v>
+        <v>151.66333</v>
       </c>
       <c r="I33">
-        <v>0.01615211160445424</v>
+        <v>0.01547591171046114</v>
       </c>
       <c r="J33">
-        <v>0.01615211160445424</v>
+        <v>0.01045927389587487</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>9966.505940108549</v>
+        <v>10593.29053970308</v>
       </c>
       <c r="R33">
-        <v>9966.505940108549</v>
+        <v>63559.74323821849</v>
       </c>
       <c r="S33">
-        <v>0.004315606898752743</v>
+        <v>0.004256631518500015</v>
       </c>
       <c r="T33">
-        <v>0.004315606898752743</v>
+        <v>0.002938490966997538</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>75.78425136417199</v>
+        <v>75.831665</v>
       </c>
       <c r="H34">
-        <v>75.78425136417199</v>
+        <v>151.66333</v>
       </c>
       <c r="I34">
-        <v>0.01615211160445424</v>
+        <v>0.01547591171046114</v>
       </c>
       <c r="J34">
-        <v>0.01615211160445424</v>
+        <v>0.01045927389587487</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>13961.47184844008</v>
+        <v>14131.59883437469</v>
       </c>
       <c r="R34">
-        <v>13961.47184844008</v>
+        <v>84789.59300624813</v>
       </c>
       <c r="S34">
-        <v>0.006045471159897184</v>
+        <v>0.005678406419586733</v>
       </c>
       <c r="T34">
-        <v>0.006045471159897184</v>
+        <v>0.003919988351910801</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>75.78425136417199</v>
+        <v>75.831665</v>
       </c>
       <c r="H35">
-        <v>75.78425136417199</v>
+        <v>151.66333</v>
       </c>
       <c r="I35">
-        <v>0.01615211160445424</v>
+        <v>0.01547591171046114</v>
       </c>
       <c r="J35">
-        <v>0.01615211160445424</v>
+        <v>0.01045927389587487</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>10588.90067060702</v>
+        <v>10889.82136810356</v>
       </c>
       <c r="R35">
-        <v>10588.90067060702</v>
+        <v>65338.92820862134</v>
       </c>
       <c r="S35">
-        <v>0.00458511067558562</v>
+        <v>0.004375784530082738</v>
       </c>
       <c r="T35">
-        <v>0.00458511067558562</v>
+        <v>0.003020746160265891</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>75.78425136417199</v>
+        <v>75.831665</v>
       </c>
       <c r="H36">
-        <v>75.78425136417199</v>
+        <v>151.66333</v>
       </c>
       <c r="I36">
-        <v>0.01615211160445424</v>
+        <v>0.01547591171046114</v>
       </c>
       <c r="J36">
-        <v>0.01615211160445424</v>
+        <v>0.01045927389587487</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>375.7942174959642</v>
+        <v>474.2296461626968</v>
       </c>
       <c r="R36">
-        <v>375.7942174959642</v>
+        <v>2845.377876976181</v>
       </c>
       <c r="S36">
-        <v>0.0001627230372692989</v>
+        <v>0.0001905565462683727</v>
       </c>
       <c r="T36">
-        <v>0.0001627230372692989</v>
+        <v>0.0001315473720189857</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>75.78425136417199</v>
+        <v>75.831665</v>
       </c>
       <c r="H37">
-        <v>75.78425136417199</v>
+        <v>151.66333</v>
       </c>
       <c r="I37">
-        <v>0.01615211160445424</v>
+        <v>0.01547591171046114</v>
       </c>
       <c r="J37">
-        <v>0.01615211160445424</v>
+        <v>0.01045927389587487</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>2270.544356537624</v>
+        <v>2272.168785770292</v>
       </c>
       <c r="R37">
-        <v>2270.544356537624</v>
+        <v>9088.675143081169</v>
       </c>
       <c r="S37">
-        <v>0.0009831707268205525</v>
+        <v>0.0009130104789076073</v>
       </c>
       <c r="T37">
-        <v>0.0009831707268205525</v>
+        <v>0.0004201871884507575</v>
       </c>
     </row>
   </sheetData>
